--- a/joins.xlsx
+++ b/joins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63565bf456f280ee/Desktop/MySQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B16173-15CB-4027-97C5-B5DBBDBE5E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{99B16173-15CB-4027-97C5-B5DBBDBE5E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A2EB13-469A-4D63-AF14-1FB9CBFF2C7C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACEBB9C3-1368-438D-B483-3D6A876F33E7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="35">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>SELECT * FROM customer c RIGHT OUTER JOIN transaction_tbl t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>CROSS JOIN:</t>
+  </si>
+  <si>
+    <t>SELECT * FROM customer c CROSS JOIN transaction_tbl;</t>
   </si>
 </sst>
 </file>
@@ -558,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931CB9DD-9C2E-4BD5-BDD1-9869B90889BB}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,6 +1558,1189 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1">
+        <v>8</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="1">
+        <v>7</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1">
+        <v>8</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="1">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="1">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
